--- a/5自动控制原理/1四旋翼飞行器建模实验/TimeDomain.xlsx
+++ b/5自动控制原理/1四旋翼飞行器建模实验/TimeDomain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11720" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13920" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pitch" sheetId="2" r:id="rId1"/>
@@ -12,18 +12,29 @@
     <sheet name="LCY" sheetId="1" r:id="rId3"/>
     <sheet name="LDL" sheetId="3" r:id="rId4"/>
     <sheet name="WLP" sheetId="4" r:id="rId5"/>
+    <sheet name="pitchparam" sheetId="6" r:id="rId6"/>
+    <sheet name="yawparam" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>时间</t>
   </si>
   <si>
     <t>角度</t>
+  </si>
+  <si>
+    <t>阶跃信号幅值</t>
+  </si>
+  <si>
+    <t>外环控制器参数</t>
+  </si>
+  <si>
+    <t>内环控制器参数</t>
   </si>
 </sst>
 </file>
@@ -31,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,21 +64,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -75,18 +71,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,37 +87,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,30 +102,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +163,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +216,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,13 +234,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,13 +288,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,19 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,97 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,17 +384,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,17 +592,45 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -443,6 +651,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -457,197 +676,203 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4808,7 +5033,7 @@
   <sheetPr/>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -20149,4 +20374,231 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="7.77678571428571" customWidth="1"/>
+    <col min="3" max="3" width="7.48214285714286" customWidth="1"/>
+    <col min="4" max="4" width="7.1875" customWidth="1"/>
+    <col min="5" max="5" width="6.99107142857143" customWidth="1"/>
+    <col min="6" max="6" width="8.25892857142857" customWidth="1"/>
+    <col min="7" max="7" width="7.96428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="6.29464285714286" customWidth="1"/>
+    <col min="3" max="3" width="6.08035714285714" customWidth="1"/>
+    <col min="4" max="4" width="7.48214285714286" customWidth="1"/>
+    <col min="5" max="6" width="6.72321428571429" customWidth="1"/>
+    <col min="7" max="7" width="6.1875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>